--- a/biology/Zoologie/Goniasteridae/Goniasteridae.xlsx
+++ b/biology/Zoologie/Goniasteridae/Goniasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Goniasteridae sont une famille d'étoiles de mer de l'ordre des Valvatida.
 </t>
@@ -511,12 +523,14 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles régulières de taille moyenne, la quasi-totalité des espèces étant pourvues de 5 bras disposés en étoile, avec un corps relativement aplati. Elles sont caractérisées, entre autres, par une double rangée de plaques plus ou moins polygonales qui borde leur marge actinale (c'est-à-dire leur bord externe, autant au niveau des bras que du disque central). La face aborale (supérieure) est couverte de plaques, parfois arrangées comme des paxilles. Les papilles respiratoires sont limitées à la face aborale[2]. Les pédicellaires sont souvent pourvus de valves, et les gonades se trouvent aux interradius[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles régulières de taille moyenne, la quasi-totalité des espèces étant pourvues de 5 bras disposés en étoile, avec un corps relativement aplati. Elles sont caractérisées, entre autres, par une double rangée de plaques plus ou moins polygonales qui borde leur marge actinale (c'est-à-dire leur bord externe, autant au niveau des bras que du disque central). La face aborale (supérieure) est couverte de plaques, parfois arrangées comme des paxilles. Les papilles respiratoires sont limitées à la face aborale. Les pédicellaires sont souvent pourvus de valves, et les gonades se trouvent aux interradius.
 De très nombreuses espèces, notamment abyssales (mais pas toutes, comme celles du genre Tosia), sont très aplaties et de forme pentagonale : celles-ci sont souvent appelées « étoiles biscuits ».
 Attention toutefois, il existe d'autres « étoiles-biscuits » qui ne font pas partie de cette famille, comme Eurygonias hylacanthus ou les jeunes Culcita.
-De nombreuses espèces de cette famille sont abyssales, mais certaines peuvent vivre à des profondeurs de baignade (notamment dans l'Indo-Pacifique). Les nombreuses espèces adoptent des régimes assez variés, avec notamment des espèces abyssales corallivores, spongivores, détritivores ou sédimentivores, constituant l'un des principaux groupes de prédateurs benthiques abyssaux[4].
+De nombreuses espèces de cette famille sont abyssales, mais certaines peuvent vivre à des profondeurs de baignade (notamment dans l'Indo-Pacifique). Les nombreuses espèces adoptent des régimes assez variés, avec notamment des espèces abyssales corallivores, spongivores, détritivores ou sédimentivores, constituant l'un des principaux groupes de prédateurs benthiques abyssaux.
 </t>
         </is>
       </c>
@@ -545,13 +559,50 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de la famille d'étoiles de mer qui contient le plus d'espèces, avec plus de 292 espèces réparties dans plus de 70 genres, et répandues des littoraux tropicaux aux abysses, dans tous les océans[4]. Cependant, la répartition est très inégale et la moitié des genres sont monospécifiques.
-Les clefs d'identification pour distinguer les différents genres comprennent notamment la présence de paxilles, de granules, de dents, de piquants, ou encore la forme des plaques marginales[5].
-Les relations entre cette famille et celle des Ophidiasteridae sont complexes, et les recherches ont donné lieu à plusieurs déplacements majeurs en 2017, avec la création de la sous-famille Ferdininae Mah 2017[2]. Plusieurs autres genres ont été déplacés depuis la famille des Oreasteridae en 2018[4], mais aussi avec l'inclusion de Goniodiscaster (auparavant membre des Oreasteridae) en 2018[4].
-Liste des genres
-Selon World Register of Marine Species                               (20 janvier 2024)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la famille d'étoiles de mer qui contient le plus d'espèces, avec plus de 292 espèces réparties dans plus de 70 genres, et répandues des littoraux tropicaux aux abysses, dans tous les océans. Cependant, la répartition est très inégale et la moitié des genres sont monospécifiques.
+Les clefs d'identification pour distinguer les différents genres comprennent notamment la présence de paxilles, de granules, de dents, de piquants, ou encore la forme des plaques marginales.
+Les relations entre cette famille et celle des Ophidiasteridae sont complexes, et les recherches ont donné lieu à plusieurs déplacements majeurs en 2017, avec la création de la sous-famille Ferdininae Mah 2017. Plusieurs autres genres ont été déplacés depuis la famille des Oreasteridae en 2018, mais aussi avec l'inclusion de Goniodiscaster (auparavant membre des Oreasteridae) en 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Goniasteridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goniasteridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 janvier 2024) :
 genre Anthenoides Perrier, 1881 -- 10 espèces
 genre Apollonaster Halpern, 1970 -- 2 espèce
 genre Astroceramus Fisher, 1906 -- 9 espèces
@@ -687,8 +738,43 @@
 			Styphlaster notabilis
 			Tosia australis
 			Wallastra elenderae
-Genres éteints
-Selon Fossilworks, il y a 2 sous-familles, 39 genres éteints et 12 genres actuels comportant des espèces fossiles : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Goniasteridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goniasteridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres éteints</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fossilworks, il y a 2 sous-familles, 39 genres éteints et 12 genres actuels comportant des espèces fossiles : 
 genre †Bugarachaster Breton, 1992
 genre †Buterminaster Blake and Zinsmeister, 1988
 genre †Caletaster Breton, 1978
